--- a/grades.xlsx
+++ b/grades.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>学生ID</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>12345</t>
+  </si>
+  <si>
+    <t>123542</t>
   </si>
 </sst>
 </file>
@@ -68,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -96,6 +99,17 @@
         <v>100.0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/grades.xlsx
+++ b/grades.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>学生ID</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>123542</t>
+  </si>
+  <si>
+    <t>1555551</t>
+  </si>
+  <si>
+    <t>52351</t>
   </si>
 </sst>
 </file>
@@ -71,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -110,6 +116,17 @@
         <v>21.0</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
